--- a/Output.xlsx
+++ b/Output.xlsx
@@ -19,10 +19,10 @@
     <t>PROJECT</t>
   </si>
   <si>
-    <t>E#11</t>
-  </si>
-  <si>
-    <t>E#45</t>
+    <t>E#17</t>
+  </si>
+  <si>
+    <t>E#25</t>
   </si>
   <si>
     <t>C#0</t>
@@ -427,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.17</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.77</v>
+        <v>8.710000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -443,7 +443,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.379999999999999</v>
+        <v>8.219999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -451,7 +451,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.35</v>
+        <v>6.930000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -459,7 +459,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2522586202872879</v>
+        <v>0.2111260548758549</v>
       </c>
     </row>
   </sheetData>
